--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Icam1-Itgax.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Icam1-Itgax.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.2243578862117</v>
+        <v>144.843106</v>
       </c>
       <c r="H2">
-        <v>46.2243578862117</v>
+        <v>434.529318</v>
       </c>
       <c r="I2">
-        <v>0.3825200913773227</v>
+        <v>0.6517202749316883</v>
       </c>
       <c r="J2">
-        <v>0.3825200913773227</v>
+        <v>0.6517202749316884</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>21.6475491901407</v>
+        <v>15.04425566666667</v>
       </c>
       <c r="N2">
-        <v>21.6475491901407</v>
+        <v>45.132767</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3565971854932169</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.356597185493217</v>
       </c>
       <c r="Q2">
-        <v>1000.644061124436</v>
+        <v>2179.056718218101</v>
       </c>
       <c r="R2">
-        <v>1000.644061124436</v>
+        <v>19611.51046396291</v>
       </c>
       <c r="S2">
-        <v>0.3825200913773227</v>
+        <v>0.2324016157695055</v>
       </c>
       <c r="T2">
-        <v>0.3825200913773227</v>
+        <v>0.2324016157695056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,57 +593,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.7697434139267</v>
+        <v>144.843106</v>
       </c>
       <c r="H3">
-        <v>33.7697434139267</v>
+        <v>434.529318</v>
       </c>
       <c r="I3">
-        <v>0.2794545111536786</v>
+        <v>0.6517202749316883</v>
       </c>
       <c r="J3">
-        <v>0.2794545111536786</v>
+        <v>0.6517202749316884</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.6475491901407</v>
+        <v>27.144119</v>
       </c>
       <c r="N3">
-        <v>21.6475491901407</v>
+        <v>81.432357</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.643402814506783</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.643402814506783</v>
       </c>
       <c r="Q3">
-        <v>731.0321816914081</v>
+        <v>3931.638505593614</v>
       </c>
       <c r="R3">
-        <v>731.0321816914081</v>
+        <v>35384.74655034253</v>
       </c>
       <c r="S3">
-        <v>0.2794545111536786</v>
+        <v>0.4193186591621827</v>
       </c>
       <c r="T3">
-        <v>0.2794545111536786</v>
+        <v>0.4193186591621827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.9776585834394</v>
+        <v>33.793597</v>
       </c>
       <c r="H4">
-        <v>38.9776585834394</v>
+        <v>101.380791</v>
       </c>
       <c r="I4">
-        <v>0.3225515335380951</v>
+        <v>0.1520539909422453</v>
       </c>
       <c r="J4">
-        <v>0.3225515335380951</v>
+        <v>0.1520539909422453</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>21.6475491901407</v>
+        <v>15.04425566666667</v>
       </c>
       <c r="N4">
-        <v>21.6475491901407</v>
+        <v>45.132767</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.3565971854932169</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.356597185493217</v>
       </c>
       <c r="Q4">
-        <v>843.7707815015143</v>
+        <v>508.3995131642997</v>
       </c>
       <c r="R4">
-        <v>843.7707815015143</v>
+        <v>4575.595618478697</v>
       </c>
       <c r="S4">
-        <v>0.3225515335380951</v>
+        <v>0.05422202521301577</v>
       </c>
       <c r="T4">
-        <v>0.3225515335380951</v>
+        <v>0.05422202521301578</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,52 +717,300 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.86988720422291</v>
+        <v>33.793597</v>
       </c>
       <c r="H5">
-        <v>1.86988720422291</v>
+        <v>101.380791</v>
       </c>
       <c r="I5">
-        <v>0.01547386393090367</v>
+        <v>0.1520539909422453</v>
       </c>
       <c r="J5">
-        <v>0.01547386393090367</v>
+        <v>0.1520539909422453</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.6475491901407</v>
+        <v>27.144119</v>
       </c>
       <c r="N5">
-        <v>21.6475491901407</v>
+        <v>81.432357</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.643402814506783</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.643402814506783</v>
       </c>
       <c r="Q5">
-        <v>40.47847523343012</v>
+        <v>917.297418406043</v>
       </c>
       <c r="R5">
-        <v>40.47847523343012</v>
+        <v>8255.676765654387</v>
       </c>
       <c r="S5">
-        <v>0.01547386393090367</v>
+        <v>0.09783196572922953</v>
       </c>
       <c r="T5">
-        <v>0.01547386393090367</v>
+        <v>0.09783196572922953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>41.33760066666667</v>
+      </c>
+      <c r="H6">
+        <v>124.012802</v>
+      </c>
+      <c r="I6">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="J6">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>15.04425566666667</v>
+      </c>
+      <c r="N6">
+        <v>45.132767</v>
+      </c>
+      <c r="O6">
+        <v>0.3565971854932169</v>
+      </c>
+      <c r="P6">
+        <v>0.356597185493217</v>
+      </c>
+      <c r="Q6">
+        <v>621.8934330759038</v>
+      </c>
+      <c r="R6">
+        <v>5597.040897683134</v>
+      </c>
+      <c r="S6">
+        <v>0.06632642348174944</v>
+      </c>
+      <c r="T6">
+        <v>0.06632642348174946</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>41.33760066666667</v>
+      </c>
+      <c r="H7">
+        <v>124.012802</v>
+      </c>
+      <c r="I7">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="J7">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>27.144119</v>
+      </c>
+      <c r="N7">
+        <v>81.432357</v>
+      </c>
+      <c r="O7">
+        <v>0.643402814506783</v>
+      </c>
+      <c r="P7">
+        <v>0.643402814506783</v>
+      </c>
+      <c r="Q7">
+        <v>1122.072751670479</v>
+      </c>
+      <c r="R7">
+        <v>10098.65476503431</v>
+      </c>
+      <c r="S7">
+        <v>0.1196717452643443</v>
+      </c>
+      <c r="T7">
+        <v>0.1196717452643443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.273049333333333</v>
+      </c>
+      <c r="H8">
+        <v>6.819148</v>
+      </c>
+      <c r="I8">
+        <v>0.01022756537997252</v>
+      </c>
+      <c r="J8">
+        <v>0.01022756537997253</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>15.04425566666667</v>
+      </c>
+      <c r="N8">
+        <v>45.132767</v>
+      </c>
+      <c r="O8">
+        <v>0.3565971854932169</v>
+      </c>
+      <c r="P8">
+        <v>0.356597185493217</v>
+      </c>
+      <c r="Q8">
+        <v>34.19633531361288</v>
+      </c>
+      <c r="R8">
+        <v>307.767017822516</v>
+      </c>
+      <c r="S8">
+        <v>0.003647121028946066</v>
+      </c>
+      <c r="T8">
+        <v>0.003647121028946067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.273049333333333</v>
+      </c>
+      <c r="H9">
+        <v>6.819148</v>
+      </c>
+      <c r="I9">
+        <v>0.01022756537997252</v>
+      </c>
+      <c r="J9">
+        <v>0.01022756537997253</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>27.144119</v>
+      </c>
+      <c r="N9">
+        <v>81.432357</v>
+      </c>
+      <c r="O9">
+        <v>0.643402814506783</v>
+      </c>
+      <c r="P9">
+        <v>0.643402814506783</v>
+      </c>
+      <c r="Q9">
+        <v>61.69992159687067</v>
+      </c>
+      <c r="R9">
+        <v>555.299294371836</v>
+      </c>
+      <c r="S9">
+        <v>0.006580444351026458</v>
+      </c>
+      <c r="T9">
+        <v>0.00658044435102646</v>
       </c>
     </row>
   </sheetData>
